--- a/DateBase/orders/Nha Thu_2024-10-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-16.xlsx
@@ -661,6 +661,9 @@
       <c r="G2" t="str">
         <v>05552856115816235321055</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2024-10-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,23 +446,23 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F2" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
-        <v>143_黑巴克_Black Baccara_Rosa rugosa Thunb._20stems</v>
+        <v>173_朱丽叶_Juliet_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F3" t="str">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
-        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F4" t="str">
         <v>5</v>
@@ -470,138 +470,23 @@
     </row>
     <row r="5">
       <c r="C5" t="str">
-        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F5" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="str">
-        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F6" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="str">
-        <v>260_凯拉_Kayla_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F7" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="str">
-        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F8" t="str">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="str">
-        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F9" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="str">
-        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
-      </c>
-      <c r="F10" t="str">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" t="str">
-        <v>201_美琴_Mikoto_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F11" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>2</v>
-      </c>
-      <c r="C12" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F12" t="str">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="str">
-        <v>201_美琴_Mikoto_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F13" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="str">
-        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F14" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="str">
-        <v>173_朱丽叶_Juliet_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F15" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="str">
-        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F16" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" t="str">
-        <v>172_入梦_Imagine_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F17" t="str">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="str">
-        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F18" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" t="str">
-        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F19" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="str">
-        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F20" t="str">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -659,10 +544,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>05552856115816235321055</v>
-      </c>
-      <c r="H2" t="str">
-        <v>CNY</v>
+        <v>042535</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2024-10-16.xlsx
+++ b/DateBase/orders/Nha Thu_2024-10-16.xlsx
@@ -546,6 +546,9 @@
       <c r="G2" t="str">
         <v>042535</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
